--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Liph-Lpar4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Liph-Lpar4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +546,10 @@
         <v>0.216204</v>
       </c>
       <c r="I2">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J2">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.826640666666667</v>
+        <v>4.088731666666667</v>
       </c>
       <c r="N2">
-        <v>11.479922</v>
+        <v>12.266195</v>
       </c>
       <c r="O2">
-        <v>0.1702001248310756</v>
+        <v>0.3917343951446914</v>
       </c>
       <c r="P2">
-        <v>0.1702001248310756</v>
+        <v>0.3917343951446913</v>
       </c>
       <c r="Q2">
-        <v>0.2757783395653334</v>
+        <v>0.2946667137533334</v>
       </c>
       <c r="R2">
-        <v>2.482005056088</v>
+        <v>2.65200042378</v>
       </c>
       <c r="S2">
-        <v>0.05069565451874723</v>
+        <v>0.1014166230613303</v>
       </c>
       <c r="T2">
-        <v>0.05069565451874723</v>
+        <v>0.1014166230613303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +608,10 @@
         <v>0.216204</v>
       </c>
       <c r="I3">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J3">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.599824000000001</v>
+        <v>4.599824</v>
       </c>
       <c r="N3">
         <v>13.799472</v>
       </c>
       <c r="O3">
-        <v>0.2045895309221555</v>
+        <v>0.4407012783700328</v>
       </c>
       <c r="P3">
-        <v>0.2045895309221554</v>
+        <v>0.4407012783700327</v>
       </c>
       <c r="Q3">
-        <v>0.3315001160320001</v>
+        <v>0.331500116032</v>
       </c>
       <c r="R3">
         <v>2.983501044288</v>
       </c>
       <c r="S3">
-        <v>0.06093885176686096</v>
+        <v>0.1140937226474373</v>
       </c>
       <c r="T3">
-        <v>0.06093885176686095</v>
+        <v>0.1140937226474372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +670,10 @@
         <v>0.216204</v>
       </c>
       <c r="I4">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J4">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +688,10 @@
         <v>0.076692</v>
       </c>
       <c r="O4">
-        <v>0.001137027583771462</v>
+        <v>0.002449243162401761</v>
       </c>
       <c r="P4">
-        <v>0.001137027583771462</v>
+        <v>0.002449243162401761</v>
       </c>
       <c r="Q4">
         <v>0.001842346352</v>
@@ -703,10 +700,10 @@
         <v>0.016581117168</v>
       </c>
       <c r="S4">
-        <v>0.000338674002867943</v>
+        <v>0.0006340877228691981</v>
       </c>
       <c r="T4">
-        <v>0.000338674002867943</v>
+        <v>0.000634087722869198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +732,10 @@
         <v>0.216204</v>
       </c>
       <c r="I5">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J5">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.031155</v>
+        <v>1.723390333333333</v>
       </c>
       <c r="N5">
-        <v>42.093465</v>
+        <v>5.170171</v>
       </c>
       <c r="O5">
-        <v>0.6240733166629975</v>
+        <v>0.1651150833228743</v>
       </c>
       <c r="P5">
-        <v>0.6240733166629974</v>
+        <v>0.1651150833228743</v>
       </c>
       <c r="Q5">
-        <v>1.01119727854</v>
+        <v>0.1242012945426667</v>
       </c>
       <c r="R5">
-        <v>9.100775506860002</v>
+        <v>1.117811650884</v>
       </c>
       <c r="S5">
-        <v>0.1858859109963446</v>
+        <v>0.04274685698944303</v>
       </c>
       <c r="T5">
-        <v>0.1858859109963446</v>
+        <v>0.04274685698944301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H6">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I6">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J6">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.826640666666667</v>
+        <v>4.088731666666667</v>
       </c>
       <c r="N6">
-        <v>11.479922</v>
+        <v>12.266195</v>
       </c>
       <c r="O6">
-        <v>0.1702001248310756</v>
+        <v>0.3917343951446914</v>
       </c>
       <c r="P6">
-        <v>0.1702001248310756</v>
+        <v>0.3917343951446913</v>
       </c>
       <c r="Q6">
-        <v>0.2667053745446667</v>
+        <v>0.7333576375544446</v>
       </c>
       <c r="R6">
-        <v>2.400348370902</v>
+        <v>6.600218737990001</v>
       </c>
       <c r="S6">
-        <v>0.04902779365312102</v>
+        <v>0.2524026353355476</v>
       </c>
       <c r="T6">
-        <v>0.04902779365312102</v>
+        <v>0.2524026353355475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H7">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I7">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J7">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.599824000000001</v>
+        <v>4.599824</v>
       </c>
       <c r="N7">
         <v>13.799472</v>
       </c>
       <c r="O7">
-        <v>0.2045895309221555</v>
+        <v>0.4407012783700328</v>
       </c>
       <c r="P7">
-        <v>0.2045895309221554</v>
+        <v>0.4407012783700327</v>
       </c>
       <c r="Q7">
-        <v>0.320593933328</v>
+        <v>0.8250274991893335</v>
       </c>
       <c r="R7">
-        <v>2.885345399952</v>
+        <v>7.425247492704001</v>
       </c>
       <c r="S7">
-        <v>0.05893399499909679</v>
+        <v>0.2839530187673602</v>
       </c>
       <c r="T7">
-        <v>0.05893399499909678</v>
+        <v>0.2839530187673601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H8">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I8">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J8">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +936,22 @@
         <v>0.076692</v>
       </c>
       <c r="O8">
-        <v>0.001137027583771462</v>
+        <v>0.002449243162401761</v>
       </c>
       <c r="P8">
-        <v>0.001137027583771462</v>
+        <v>0.002449243162401761</v>
       </c>
       <c r="Q8">
-        <v>0.001781734108</v>
+        <v>0.004585176082666668</v>
       </c>
       <c r="R8">
-        <v>0.016035606972</v>
+        <v>0.041266584744</v>
       </c>
       <c r="S8">
-        <v>0.0003275318029900514</v>
+        <v>0.001578098416758727</v>
       </c>
       <c r="T8">
-        <v>0.0003275318029900513</v>
+        <v>0.001578098416758727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H9">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I9">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J9">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.031155</v>
+        <v>1.723390333333333</v>
       </c>
       <c r="N9">
-        <v>42.093465</v>
+        <v>5.170171</v>
       </c>
       <c r="O9">
-        <v>0.6240733166629975</v>
+        <v>0.1651150833228743</v>
       </c>
       <c r="P9">
-        <v>0.6240733166629974</v>
+        <v>0.1651150833228743</v>
       </c>
       <c r="Q9">
-        <v>0.9779294100349999</v>
+        <v>0.3091084391135556</v>
       </c>
       <c r="R9">
-        <v>8.801364690314999</v>
+        <v>2.781975952022</v>
       </c>
       <c r="S9">
-        <v>0.179770360474999</v>
+        <v>0.1063870895200528</v>
       </c>
       <c r="T9">
-        <v>0.1797703604749989</v>
+        <v>0.1063870895200527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H10">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I10">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J10">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.826640666666667</v>
+        <v>4.088731666666667</v>
       </c>
       <c r="N10">
-        <v>11.479922</v>
+        <v>12.266195</v>
       </c>
       <c r="O10">
-        <v>0.1702001248310756</v>
+        <v>0.3917343951446914</v>
       </c>
       <c r="P10">
-        <v>0.1702001248310756</v>
+        <v>0.3917343951446913</v>
       </c>
       <c r="Q10">
-        <v>0.2762439141797778</v>
+        <v>0.110162697295</v>
       </c>
       <c r="R10">
-        <v>2.486195227618</v>
+        <v>0.9914642756549999</v>
       </c>
       <c r="S10">
-        <v>0.05078123995610891</v>
+        <v>0.03791513674781348</v>
       </c>
       <c r="T10">
-        <v>0.05078123995610891</v>
+        <v>0.03791513674781347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1101,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H11">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I11">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J11">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.599824000000001</v>
+        <v>4.599824</v>
       </c>
       <c r="N11">
         <v>13.799472</v>
       </c>
       <c r="O11">
-        <v>0.2045895309221555</v>
+        <v>0.4407012783700328</v>
       </c>
       <c r="P11">
-        <v>0.2045895309221554</v>
+        <v>0.4407012783700327</v>
       </c>
       <c r="Q11">
-        <v>0.3320597612853334</v>
+        <v>0.123933058032</v>
       </c>
       <c r="R11">
-        <v>2.988537851568001</v>
+        <v>1.115397522288</v>
       </c>
       <c r="S11">
-        <v>0.06104172997861886</v>
+        <v>0.04265453695523535</v>
       </c>
       <c r="T11">
-        <v>0.06104172997861885</v>
+        <v>0.04265453695523536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H12">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I12">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J12">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1184,22 @@
         <v>0.076692</v>
       </c>
       <c r="O12">
-        <v>0.001137027583771462</v>
+        <v>0.002449243162401761</v>
       </c>
       <c r="P12">
-        <v>0.001137027583771462</v>
+        <v>0.002449243162401761</v>
       </c>
       <c r="Q12">
-        <v>0.001845456638666667</v>
+        <v>0.000688770852</v>
       </c>
       <c r="R12">
-        <v>0.016609109748</v>
+        <v>0.006198937668</v>
       </c>
       <c r="S12">
-        <v>0.0003392457592232685</v>
+        <v>0.0002370570227738358</v>
       </c>
       <c r="T12">
-        <v>0.0003392457592232685</v>
+        <v>0.0002370570227738358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H13">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I13">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J13">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,524 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.031155</v>
+        <v>1.723390333333333</v>
       </c>
       <c r="N13">
-        <v>42.093465</v>
+        <v>5.170171</v>
       </c>
       <c r="O13">
-        <v>0.6240733166629975</v>
+        <v>0.1651150833228743</v>
       </c>
       <c r="P13">
-        <v>0.6240733166629974</v>
+        <v>0.1651150833228743</v>
       </c>
       <c r="Q13">
-        <v>1.012904402398333</v>
+        <v>0.046433305751</v>
       </c>
       <c r="R13">
-        <v>9.116139621585001</v>
+        <v>0.417899751759</v>
       </c>
       <c r="S13">
-        <v>0.186199727380471</v>
+        <v>0.01598113681337852</v>
       </c>
       <c r="T13">
-        <v>0.186199727380471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.016601</v>
-      </c>
-      <c r="H14">
-        <v>0.049803</v>
-      </c>
-      <c r="I14">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J14">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.826640666666667</v>
-      </c>
-      <c r="N14">
-        <v>11.479922</v>
-      </c>
-      <c r="O14">
-        <v>0.1702001248310756</v>
-      </c>
-      <c r="P14">
-        <v>0.1702001248310756</v>
-      </c>
-      <c r="Q14">
-        <v>0.06352606170733335</v>
-      </c>
-      <c r="R14">
-        <v>0.5717345553660002</v>
-      </c>
-      <c r="S14">
-        <v>0.01167783982718714</v>
-      </c>
-      <c r="T14">
-        <v>0.01167783982718714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.016601</v>
-      </c>
-      <c r="H15">
-        <v>0.049803</v>
-      </c>
-      <c r="I15">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J15">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.599824000000001</v>
-      </c>
-      <c r="N15">
-        <v>13.799472</v>
-      </c>
-      <c r="O15">
-        <v>0.2045895309221555</v>
-      </c>
-      <c r="P15">
-        <v>0.2045895309221554</v>
-      </c>
-      <c r="Q15">
-        <v>0.07636167822400002</v>
-      </c>
-      <c r="R15">
-        <v>0.6872551040160001</v>
-      </c>
-      <c r="S15">
-        <v>0.01403737967172197</v>
-      </c>
-      <c r="T15">
-        <v>0.01403737967172197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.016601</v>
-      </c>
-      <c r="H16">
-        <v>0.049803</v>
-      </c>
-      <c r="I16">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J16">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.025564</v>
-      </c>
-      <c r="N16">
-        <v>0.076692</v>
-      </c>
-      <c r="O16">
-        <v>0.001137027583771462</v>
-      </c>
-      <c r="P16">
-        <v>0.001137027583771462</v>
-      </c>
-      <c r="Q16">
-        <v>0.000424387964</v>
-      </c>
-      <c r="R16">
-        <v>0.003819491676</v>
-      </c>
-      <c r="S16">
-        <v>7.801419661445749E-05</v>
-      </c>
-      <c r="T16">
-        <v>7.801419661445749E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.016601</v>
-      </c>
-      <c r="H17">
-        <v>0.049803</v>
-      </c>
-      <c r="I17">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J17">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>14.031155</v>
-      </c>
-      <c r="N17">
-        <v>42.093465</v>
-      </c>
-      <c r="O17">
-        <v>0.6240733166629975</v>
-      </c>
-      <c r="P17">
-        <v>0.6240733166629974</v>
-      </c>
-      <c r="Q17">
-        <v>0.232931204155</v>
-      </c>
-      <c r="R17">
-        <v>2.096380837395</v>
-      </c>
-      <c r="S17">
-        <v>0.04281917090040402</v>
-      </c>
-      <c r="T17">
-        <v>0.04281917090040401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.034193</v>
-      </c>
-      <c r="I18">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J18">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>3.826640666666667</v>
-      </c>
-      <c r="N18">
-        <v>11.479922</v>
-      </c>
-      <c r="O18">
-        <v>0.1702001248310756</v>
-      </c>
-      <c r="P18">
-        <v>0.1702001248310756</v>
-      </c>
-      <c r="Q18">
-        <v>0.04361477477177779</v>
-      </c>
-      <c r="R18">
-        <v>0.3925329729460001</v>
-      </c>
-      <c r="S18">
-        <v>0.00801759687591129</v>
-      </c>
-      <c r="T18">
-        <v>0.00801759687591129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.034193</v>
-      </c>
-      <c r="I19">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J19">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.599824000000001</v>
-      </c>
-      <c r="N19">
-        <v>13.799472</v>
-      </c>
-      <c r="O19">
-        <v>0.2045895309221555</v>
-      </c>
-      <c r="P19">
-        <v>0.2045895309221554</v>
-      </c>
-      <c r="Q19">
-        <v>0.05242726067733335</v>
-      </c>
-      <c r="R19">
-        <v>0.4718453460960001</v>
-      </c>
-      <c r="S19">
-        <v>0.009637574505856861</v>
-      </c>
-      <c r="T19">
-        <v>0.009637574505856861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.034193</v>
-      </c>
-      <c r="I20">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J20">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.025564</v>
-      </c>
-      <c r="N20">
-        <v>0.076692</v>
-      </c>
-      <c r="O20">
-        <v>0.001137027583771462</v>
-      </c>
-      <c r="P20">
-        <v>0.001137027583771462</v>
-      </c>
-      <c r="Q20">
-        <v>0.0002913699506666667</v>
-      </c>
-      <c r="R20">
-        <v>0.002622329556</v>
-      </c>
-      <c r="S20">
-        <v>5.356182207574132E-05</v>
-      </c>
-      <c r="T20">
-        <v>5.356182207574132E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.034193</v>
-      </c>
-      <c r="I21">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J21">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>14.031155</v>
-      </c>
-      <c r="N21">
-        <v>42.093465</v>
-      </c>
-      <c r="O21">
-        <v>0.6240733166629975</v>
-      </c>
-      <c r="P21">
-        <v>0.6240733166629974</v>
-      </c>
-      <c r="Q21">
-        <v>0.1599224276383333</v>
-      </c>
-      <c r="R21">
-        <v>1.439301848745</v>
-      </c>
-      <c r="S21">
-        <v>0.02939814691077876</v>
-      </c>
-      <c r="T21">
-        <v>0.02939814691077876</v>
+        <v>0.01598113681337852</v>
       </c>
     </row>
   </sheetData>
